--- a/语法/敬语.xlsx
+++ b/语法/敬语.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC91B1B1-5403-45EB-9E08-A350205A895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+  <si>
+    <t>尊敬語（そんけいご）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謙譲語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁寧語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食べる・飲む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し上げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なさる（なさい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いただく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致す（いたす）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（おっしゃる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召し上がる（めしあがる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご存知（ごぞんじ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご覧になる（ごらんになる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くださる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参る（まいる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申す（もうす）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拝見する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +151,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +258,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +581,523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" style="3" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="14"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>